--- a/test_data/operations/moorings_requirements.xlsx
+++ b/test_data/operations/moorings_requirements.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\test_data\operations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>False</t>
   </si>
@@ -88,12 +93,15 @@
   </si>
   <si>
     <t>Max Current Speed for Inspections</t>
+  </si>
+  <si>
+    <t>Mooring Lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,6 +202,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -241,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +287,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,30 +498,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -563,7 +574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -620,26 +631,64 @@
       <c r="T2" s="1"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -658,7 +707,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -677,7 +726,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -696,7 +745,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -715,7 +764,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -726,7 +775,7 @@
       <c r="I10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -751,26 +800,26 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -830,30 +879,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -900,7 +949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -946,6 +995,59 @@
       <c r="O2" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="V3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/operations/moorings_requirements.xlsx
+++ b/test_data/operations/moorings_requirements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>False</t>
   </si>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,15 +794,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
     <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
@@ -819,7 +819,7 @@
     <col min="17" max="17" width="32.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -871,6 +871,120 @@
       <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="V3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/operations/moorings_requirements.xlsx
+++ b/test_data/operations/moorings_requirements.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\test_data\operations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\test_data\operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B8BE88-BEFC-4863-8A23-F630880A0AA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="22980" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
     <sheet name="Replacement" sheetId="2" r:id="rId2"/>
     <sheet name="Inspections" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>False</t>
   </si>
@@ -96,12 +97,15 @@
   </si>
   <si>
     <t>Mooring Lines</t>
+  </si>
+  <si>
+    <t>Interruptible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,11 +194,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Explanatory Text 2" xfId="2"/>
+    <cellStyle name="Explanatory Text 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -285,6 +289,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -320,6 +341,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,33 +533,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -574,7 +612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -631,7 +669,7 @@
       <c r="T2" s="1"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -688,7 +726,7 @@
       <c r="T3" s="1"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -707,7 +745,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -726,7 +764,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -745,7 +783,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -764,7 +802,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -775,7 +813,7 @@
       <c r="I10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -793,33 +831,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -830,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -872,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -929,7 +967,7 @@
       <c r="T2" s="1"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -992,31 +1030,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1063,7 +1101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>

--- a/test_data/operations/moorings_requirements.xlsx
+++ b/test_data/operations/moorings_requirements.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\test_data\operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B8BE88-BEFC-4863-8A23-F630880A0AA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E1FC40-2D0C-4DF4-AA89-9CED45C23C8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="22980" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="22980" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
     <sheet name="Replacement" sheetId="2" r:id="rId2"/>
     <sheet name="Inspections" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>False</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Access Duration</t>
-  </si>
-  <si>
-    <t>Interruptable</t>
   </si>
   <si>
     <t>Crew Preparation Delay</t>
@@ -536,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,51 +567,51 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
@@ -671,7 +668,7 @@
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -834,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -868,51 +865,51 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
@@ -969,7 +966,7 @@
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -1059,51 +1056,51 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
